--- a/data/rami900.xlsx
+++ b/data/rami900.xlsx
@@ -455,7 +455,7 @@
         <v>Калгон  3в1  Ср-во д/ смягчениея воды  750 гр  в  ПАКЕТЕ   *4/8</v>
       </c>
       <c r="B2">
-        <v>1778146516</v>
+        <v>990958337</v>
       </c>
       <c r="C2">
         <v>4640018994890</v>
@@ -482,7 +482,7 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>1872</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>Калгон  Cр-во для cмяг.воды и пред.обр.накипи  1500гр (СУХОЙ)</v>
       </c>
       <c r="B3">
-        <v>990951763</v>
+        <v>101818728730</v>
       </c>
       <c r="C3">
         <v>4640018994906</v>
@@ -517,7 +517,7 @@
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>1575</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>Калгон  Гель  750 мл Комплексная Защита д/смягчения воды  3в1</v>
       </c>
       <c r="B4">
-        <v>1736162048</v>
+        <v>101646054823</v>
       </c>
       <c r="C4">
         <v>4640018994852</v>
@@ -552,7 +552,7 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>2200</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>Калгон  Гель 1500 мл Cр-во для cмяг.воды и пред.обр.накипи  (ЖИДКИЙ)</v>
       </c>
       <c r="B5">
-        <v>1736162048</v>
+        <v>102348448868</v>
       </c>
       <c r="C5">
         <v>4640018994869</v>
@@ -587,7 +587,7 @@
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>2200</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="6">
@@ -595,7 +595,7 @@
         <v>Калгон  с/п  3в1  400гр  для смягчения воды Пакет</v>
       </c>
       <c r="B6">
-        <v>1778146517</v>
+        <v>990960394</v>
       </c>
       <c r="C6">
         <v>4640018994883</v>
@@ -622,7 +622,7 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>1540</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>Финиш  Соль д/ПММ 1,5 кг.</v>
       </c>
       <c r="B7">
-        <v>1778146450</v>
+        <v>34370259</v>
       </c>
       <c r="C7">
         <v>8594002682736</v>
@@ -657,7 +657,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>4733</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>Финиш  Соль д/ПММ 3 кг.</v>
       </c>
       <c r="B8">
-        <v>1778146484</v>
+        <v>182011364</v>
       </c>
       <c r="C8">
         <v>4640018991554</v>
@@ -692,7 +692,7 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>3115</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
         <v>Финиш  Ср-во моющ. д/ПММ 1 кг. ЛИМОН</v>
       </c>
       <c r="B9">
-        <v>1729924929</v>
+        <v>100289200776</v>
       </c>
       <c r="C9">
         <v>8594002683320</v>
@@ -727,7 +727,7 @@
         <v>0.5</v>
       </c>
       <c r="K9">
-        <v>1925</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="10">
@@ -735,7 +735,7 @@
         <v>Финиш  Таблетки д/ПММ  FINISH 10 в1 /25шт/</v>
       </c>
       <c r="B10">
-        <v>1729924932</v>
+        <v>100235927659</v>
       </c>
       <c r="C10">
         <v>4640018995941</v>
@@ -762,7 +762,7 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>27227</v>
+        <v>22876</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>Финиш  Таблетки д/ПММ  FINISH 10 в1 POWER / 50шт/ПАКЕТ</v>
       </c>
       <c r="B11">
-        <v>1729924932</v>
+        <v>100235927654</v>
       </c>
       <c r="C11">
         <v>4640018995958</v>
@@ -797,7 +797,7 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>27227</v>
+        <v>22876</v>
       </c>
     </row>
   </sheetData>
